--- a/pred_ohlcv/54_21/2020-01-26 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 MBL ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>209706.0565763158</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>232669.0565763158</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>207297.0565763158</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>215932.0565763158</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>161308.2697763158</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>192721.2697763158</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>158614.2697763158</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>132251.2697763158</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>168172.2697763158</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>126302.2697763158</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>213326.2697763158</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>235461.2697763158</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>279823.2697763158</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>241143.2697763158</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>185161.2697763158</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>233452.2697763158</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>272369.2697763158</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>315570.2697763158</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>313919.2697763158</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>306670.2697763158</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>304500.2697763158</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>304500.2697763158</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>358137.2697763158</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>303813.2701763158</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>303813.2701763158</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>327174.2701763158</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>289490.2701763158</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>265980.2701763158</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>260148.2701763158</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>315286.3825763158</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>315286.3825763158</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>271176.3825763158</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>226311.3825763158</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>267696.3825763158</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>237740.3825763158</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>237740.3825763158</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>267567.3825763158</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>303844.3825763158</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>270822.3825763158</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>270822.3825763158</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>341069.3825763158</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>341069.3825763158</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>363153.3825763158</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>321497.3825763158</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>321497.3825763158</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>321497.3825763158</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>364181.3825763158</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>382634.3825763158</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>336347.3825763158</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>336347.3825763158</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>382404.3825763158</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>359918.3825763158</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>408638.3825763158</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>411454.4357763157</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>448741.5347763157</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>337389.5347763157</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>337389.5347763157</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>333249.5347763157</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>359994.5347763157</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>424026.5347763157</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3563209.40679416</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4062830.50539416</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2564093.52509416</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2518306.52509416</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2412433.99789416</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2434101.99789416</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2402741.99789416</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2426731.99789416</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2367797.03409416</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2604003.02789416</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2651132.02789416</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3096728.231766281</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3073212.231766281</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3091091.231766281</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>4479141.757832501</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>4518047.757832501</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>4518047.757832501</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>4476939.757832501</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>4404762.757832501</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>4476198.757832501</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>4425396.757832501</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>4380478.757832501</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>4437431.757832501</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>4399701.757832501</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>4399701.757832501</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>4399701.757832501</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>4399701.757832501</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>4461317.114532501</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>4460197.499632501</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>4203031.111116963</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>4203031.111116963</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>4246655.111116963</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>4201574.000816963</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>4228042.000816963</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>4200060.260716963</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>4160365.725816963</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>4118502.725816963</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>4071122.725816963</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>4038719.725816963</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>4038719.725816963</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>3951687.392916963</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>3923449.392916963</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>3923449.392916963</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>3965096.392916963</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>3944288.392916963</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>3997046.392916963</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>4015042.392916963</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>3983320.392916963</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>4005892.392916963</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>4044321.392916963</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>4021861.392916963</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>4021861.392916963</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>4045663.392916963</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>4071757.392916963</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>4071757.392916963</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>4035622.392916963</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-822874.6607154174</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-969854.7679154173</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-946239.7389154173</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-946239.7389154173</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-945939.7389154173</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-825781.7389154173</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-866669.7389154173</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-907937.9415154173</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-813775.2109154173</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-813775.2109154173</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-813475.2109154173</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-717193.6777154173</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-687672.6777154173</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-666081.6777154173</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-662517.6777154173</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-629354.6777154173</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-671486.6777154173</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-707696.6777154173</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-707696.6777154173</v>
       </c>
       <c r="H1203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-742475.6777154173</v>
       </c>
       <c r="H1204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-742475.6777154173</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-768646.6777154173</v>
       </c>
       <c r="H1206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-743101.6777154173</v>
       </c>
       <c r="H1207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-774105.6777154173</v>
       </c>
       <c r="H1208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-809501.6777154173</v>
       </c>
       <c r="H1209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-785919.6777154173</v>
       </c>
       <c r="H1210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-743077.6777154173</v>
       </c>
       <c r="H1211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-784041.6777154173</v>
       </c>
       <c r="H1212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-747755.6777154173</v>
       </c>
       <c r="H1213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-776903.6777154173</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-756263.6777154173</v>
       </c>
       <c r="H1215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-759962.6777154173</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-806412.6777154173</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-754724.6777154173</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-802505.6777154173</v>
       </c>
       <c r="H1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-845251.6777154173</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-845251.6777154173</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-793151.6777154173</v>
       </c>
       <c r="H1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-836870.6777154173</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-886576.6777154173</v>
       </c>
       <c r="H1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 MBL ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>238452.0565763158</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>283051.0565763158</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>244211.0565763158</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>209706.0565763158</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>232669.0565763158</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>207297.0565763158</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>215932.0565763158</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>161308.2697763158</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>192721.2697763158</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>158614.2697763158</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>132251.2697763158</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>168172.2697763158</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>126302.2697763158</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>213326.2697763158</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>235461.2697763158</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>279823.2697763158</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>241143.2697763158</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>185161.2697763158</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>233452.2697763158</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>272369.2697763158</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>315570.2697763158</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>313919.2697763158</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>306670.2697763158</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>304500.2697763158</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>358137.2697763158</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>303813.2701763158</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>303813.2701763158</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>289490.2701763158</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>315286.3825763158</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>315286.3825763158</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>271176.3825763158</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>226311.3825763158</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>382404.3825763158</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>359918.3825763158</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>408638.3825763158</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>411454.4357763157</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>448741.5347763157</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>265180.5347763157</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>364112.5347763157</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>362871.5347763157</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>366498.5347763157</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>395135.5347763157</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>395135.5347763157</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>359994.5347763157</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3563209.40679416</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>3364936.31839416</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>3656335.26939416</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>2984946.01629416</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>2672736.21089416</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2706356.21089416</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2564093.52509416</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2518306.52509416</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2412433.99789416</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2434101.99789416</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2402741.99789416</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2426731.99789416</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2367797.03409416</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2604003.02789416</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2651132.02789416</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3096728.231766281</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3091091.231766281</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3059625.218266281</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>4404762.757832501</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>4476198.757832501</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>4425396.757832501</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>4380478.757832501</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>4437431.757832501</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>4203031.111116963</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>4203031.111116963</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>4246655.111116963</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>4201574.000816963</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>4228042.000816963</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>4200060.260716963</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>4160365.725816963</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>4118502.725816963</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>4071122.725816963</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>4038719.725816963</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>4038719.725816963</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>3951687.392916963</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>3923449.392916963</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>3923449.392916963</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>3965096.392916963</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>3944288.392916963</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>3997046.392916963</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>4015042.392916963</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>3983320.392916963</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>4005892.392916963</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>4044321.392916963</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>4021861.392916963</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>4021861.392916963</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>4045663.392916963</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>4071757.392916963</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>4071757.392916963</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>4035622.392916963</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-822874.6607154174</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-969854.7679154173</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-946239.7389154173</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-946239.7389154173</v>
       </c>
       <c r="H1155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-945939.7389154173</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-912294.7389154173</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-825781.7389154173</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-866669.7389154173</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-907937.9415154173</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-875823.1441154173</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-796565.9408154173</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-848037.9415154173</v>
       </c>
       <c r="H1168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-814003.9415154173</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-774919.9415154173</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-745931.9415154173</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-813775.2109154173</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-813775.2109154173</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-813475.2109154173</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-717193.6777154173</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-687672.6777154173</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-666081.6777154173</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-702227.6777154173</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-662517.6777154173</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-629354.6777154173</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-671486.6777154173</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-707696.6777154173</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-707696.6777154173</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-742475.6777154173</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-742475.6777154173</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-768646.6777154173</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-743101.6777154173</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-774105.6777154173</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-809501.6777154173</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-785919.6777154173</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-743077.6777154173</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-784041.6777154173</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-747755.6777154173</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-776903.6777154173</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-756263.6777154173</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-759962.6777154173</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-806412.6777154173</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-754724.6777154173</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-802505.6777154173</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-845251.6777154173</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-845251.6777154173</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-793151.6777154173</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-836870.6777154173</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-886576.6777154173</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
